--- a/Code/Results/Cases/Case_1_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_231/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.87605355528714</v>
+        <v>16.72108471310284</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.967799730844772</v>
+        <v>9.35867802179188</v>
       </c>
       <c r="E2">
-        <v>10.52621398231426</v>
+        <v>14.24662713491184</v>
       </c>
       <c r="F2">
-        <v>23.63693292295433</v>
+        <v>31.91294490784457</v>
       </c>
       <c r="G2">
-        <v>2.058506596651603</v>
+        <v>3.637742375804281</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.63348677247409</v>
+        <v>24.220537026416</v>
       </c>
       <c r="J2">
-        <v>7.356706000148391</v>
+        <v>10.41762639207613</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.67938811063227</v>
+        <v>11.74661469197533</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.58484372756562</v>
+        <v>18.17077857607983</v>
       </c>
       <c r="O2">
-        <v>18.46221745735859</v>
+        <v>24.20472263912309</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.79378804280503</v>
+        <v>16.40463245790677</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.960153942542544</v>
+        <v>9.365936399759541</v>
       </c>
       <c r="E3">
-        <v>10.40957182481151</v>
+        <v>14.22967815492202</v>
       </c>
       <c r="F3">
-        <v>22.91610064533082</v>
+        <v>31.90783199814059</v>
       </c>
       <c r="G3">
-        <v>2.064950759792428</v>
+        <v>3.640268678967709</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.04385435030766</v>
+        <v>24.36803892057443</v>
       </c>
       <c r="J3">
-        <v>7.294547414174947</v>
+        <v>10.40962106939383</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.96250509783669</v>
+        <v>11.57250471215913</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.56281808562317</v>
+        <v>18.18600810926315</v>
       </c>
       <c r="O3">
-        <v>17.82616001776373</v>
+        <v>24.17600803214458</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.09540567446155</v>
+        <v>16.20902157080354</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.956465333501602</v>
+        <v>9.370846538412332</v>
       </c>
       <c r="E4">
-        <v>10.33836363738579</v>
+        <v>14.21983248234154</v>
       </c>
       <c r="F4">
-        <v>22.48529658817884</v>
+        <v>31.91342046326498</v>
       </c>
       <c r="G4">
-        <v>2.06903223198405</v>
+        <v>3.64190373001763</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.30346427054136</v>
+        <v>24.4631875786989</v>
       </c>
       <c r="J4">
-        <v>7.256760805815807</v>
+        <v>10.40505581860722</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.52867393569461</v>
+        <v>11.4655926140586</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.55335567398124</v>
+        <v>18.19736232951449</v>
       </c>
       <c r="O4">
-        <v>17.44130471869902</v>
+        <v>24.16482822832075</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.80243529912256</v>
+        <v>16.12907920341724</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.955207290540349</v>
+        <v>9.372961755673117</v>
       </c>
       <c r="E5">
-        <v>10.30946418558432</v>
+        <v>14.21596317411936</v>
       </c>
       <c r="F5">
-        <v>22.31289737122989</v>
+        <v>31.9178917533174</v>
       </c>
       <c r="G5">
-        <v>2.070727676256022</v>
+        <v>3.64259119073404</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.41119298526554</v>
+        <v>24.50311642839057</v>
       </c>
       <c r="J5">
-        <v>7.24146389482291</v>
+        <v>10.40328432914306</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.34712565607312</v>
+        <v>11.42207100980546</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.55050668244784</v>
+        <v>18.20249433243099</v>
       </c>
       <c r="O5">
-        <v>17.28610104969993</v>
+        <v>24.1618974478293</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.75328698100961</v>
+        <v>16.11579393977786</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.955012978140316</v>
+        <v>9.373319896956994</v>
       </c>
       <c r="E6">
-        <v>10.3046730600717</v>
+        <v>14.2153293600262</v>
       </c>
       <c r="F6">
-        <v>22.28446686750518</v>
+        <v>31.91876666470032</v>
       </c>
       <c r="G6">
-        <v>2.071011172955647</v>
+        <v>3.642706623358643</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.42919859608206</v>
+        <v>24.50981642644315</v>
       </c>
       <c r="J6">
-        <v>7.238930161518399</v>
+        <v>10.40299556821508</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.31669636598888</v>
+        <v>11.41484846216124</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.55009401253854</v>
+        <v>18.20337704056011</v>
       </c>
       <c r="O6">
-        <v>17.26043387609111</v>
+        <v>24.16150900186939</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.09148826190106</v>
+        <v>16.20794423536382</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.95644738465925</v>
+        <v>9.370874601822031</v>
       </c>
       <c r="E7">
-        <v>10.33797338924694</v>
+        <v>14.21977971860766</v>
       </c>
       <c r="F7">
-        <v>22.48295851662329</v>
+        <v>31.91347188361306</v>
       </c>
       <c r="G7">
-        <v>2.069054965825684</v>
+        <v>3.641912915568799</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.3049092810358</v>
+        <v>24.46372139281137</v>
       </c>
       <c r="J7">
-        <v>7.256554087450046</v>
+        <v>10.40503156664351</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.52624460027837</v>
+        <v>11.46500541692024</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.55331319298373</v>
+        <v>18.19742949477831</v>
       </c>
       <c r="O7">
-        <v>17.43920472794318</v>
+        <v>24.164782120162</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.50999097657249</v>
+        <v>16.61230234153771</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.964949756769576</v>
+        <v>9.361086754719906</v>
       </c>
       <c r="E8">
-        <v>10.48591953437624</v>
+        <v>14.24066776265073</v>
       </c>
       <c r="F8">
-        <v>23.38605809795836</v>
+        <v>31.90937053299225</v>
       </c>
       <c r="G8">
-        <v>2.060703179890196</v>
+        <v>3.638596075290031</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.77340303808129</v>
+        <v>24.27044642265573</v>
       </c>
       <c r="J8">
-        <v>7.335198692500011</v>
+        <v>10.4147940247566</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.42091665497893</v>
+        <v>11.68661182849413</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.57639776797521</v>
+        <v>18.1756147646319</v>
       </c>
       <c r="O8">
-        <v>18.24184025013024</v>
+        <v>24.19348508184428</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.01853539708075</v>
+        <v>17.39064131640431</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.989994872913483</v>
+        <v>9.345479172863172</v>
       </c>
       <c r="E9">
-        <v>10.77866725244929</v>
+        <v>14.28600221576644</v>
       </c>
       <c r="F9">
-        <v>25.2423512664256</v>
+        <v>31.9705461702714</v>
       </c>
       <c r="G9">
-        <v>2.045274377238275</v>
+        <v>3.632754249200177</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.79124657737215</v>
+        <v>23.92765883708097</v>
       </c>
       <c r="J9">
-        <v>7.492171409141712</v>
+        <v>10.43667814560018</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.18171348309906</v>
+        <v>12.11904027427767</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.65453432022513</v>
+        <v>18.14867150879975</v>
       </c>
       <c r="O9">
-        <v>19.85288892947703</v>
+        <v>24.30076884528174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.69122444682588</v>
+        <v>17.94816603554842</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.014104489597171</v>
+        <v>9.336183066874186</v>
       </c>
       <c r="E10">
-        <v>10.99457970119072</v>
+        <v>14.32186997139407</v>
       </c>
       <c r="F10">
-        <v>26.64799804731245</v>
+        <v>32.05754860524618</v>
       </c>
       <c r="G10">
-        <v>2.034456930194777</v>
+        <v>3.628861734808696</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.10584616736867</v>
+        <v>23.69771011214397</v>
       </c>
       <c r="J10">
-        <v>7.608861047262054</v>
+        <v>10.45437707145627</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.3456987985668</v>
+        <v>12.43271510109984</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.73286556260678</v>
+        <v>18.13844941049821</v>
       </c>
       <c r="O10">
-        <v>21.04967968838538</v>
+        <v>24.41033648951314</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.43928545635188</v>
+        <v>18.19762331348306</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.02646599590112</v>
+        <v>9.332422106021411</v>
       </c>
       <c r="E11">
-        <v>11.09284678675166</v>
+        <v>14.3387199973032</v>
       </c>
       <c r="F11">
-        <v>27.29473794128196</v>
+        <v>32.10619640035746</v>
       </c>
       <c r="G11">
-        <v>2.029633842009437</v>
+        <v>3.62717673693952</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.80191111673914</v>
+        <v>23.59781595233022</v>
       </c>
       <c r="J11">
-        <v>7.66218407509906</v>
+        <v>10.46276984060666</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.84763465614459</v>
+        <v>12.57398423018243</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.77323396987793</v>
+        <v>18.13585968796686</v>
       </c>
       <c r="O11">
-        <v>21.59542636196811</v>
+        <v>24.46675476855033</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.72387623533306</v>
+        <v>18.29140489099835</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.031361990085883</v>
+        <v>9.33106493889248</v>
       </c>
       <c r="E12">
-        <v>11.1300552225681</v>
+        <v>14.34517531939153</v>
       </c>
       <c r="F12">
-        <v>27.54057060025079</v>
+        <v>32.12591407901752</v>
       </c>
       <c r="G12">
-        <v>2.027820240393195</v>
+        <v>3.62655092827763</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.68796221697576</v>
+        <v>23.56066315941359</v>
       </c>
       <c r="J12">
-        <v>7.682406452973124</v>
+        <v>10.46599608577962</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.03379055345752</v>
+        <v>12.62723020940001</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.78921662448167</v>
+        <v>18.13517365698951</v>
       </c>
       <c r="O12">
-        <v>21.80217852908605</v>
+        <v>24.48905338776078</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.66285955972702</v>
+        <v>18.27123898504234</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.030297740001048</v>
+        <v>9.331354252116858</v>
       </c>
       <c r="E13">
-        <v>11.12204199870891</v>
+        <v>14.34378176781608</v>
       </c>
       <c r="F13">
-        <v>27.4875866277946</v>
+        <v>32.12161004451441</v>
       </c>
       <c r="G13">
-        <v>2.028210284077732</v>
+        <v>3.626685162962233</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.71245188433335</v>
+        <v>23.56863469747929</v>
       </c>
       <c r="J13">
-        <v>7.678049925801528</v>
+        <v>10.46529913384824</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.99387193109769</v>
+        <v>12.61577453137822</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.78574327755904</v>
+        <v>18.13530832852062</v>
       </c>
       <c r="O13">
-        <v>21.75764806871914</v>
+        <v>24.48420962519704</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.46282294153534</v>
+        <v>18.20535292049014</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.026864394857943</v>
+        <v>9.332309109196055</v>
       </c>
       <c r="E14">
-        <v>11.09590806081822</v>
+        <v>14.33924959822853</v>
       </c>
       <c r="F14">
-        <v>27.31494479219549</v>
+        <v>32.10779266985777</v>
       </c>
       <c r="G14">
-        <v>2.029484387065407</v>
+        <v>3.627125005870414</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.79251340604948</v>
+        <v>23.5947458563253</v>
       </c>
       <c r="J14">
-        <v>7.663847201726524</v>
+        <v>10.46303430789342</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.86302801654076</v>
+        <v>12.57837006180457</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.77453483668995</v>
+        <v>18.13579735233839</v>
       </c>
       <c r="O14">
-        <v>21.61243466714017</v>
+        <v>24.46857063545103</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.33948831281429</v>
+        <v>18.16490452252898</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.024789826096357</v>
+        <v>9.332902708098958</v>
       </c>
       <c r="E15">
-        <v>11.0798995934111</v>
+        <v>14.33648316195832</v>
       </c>
       <c r="F15">
-        <v>27.20931409169651</v>
+        <v>32.09949760329841</v>
       </c>
       <c r="G15">
-        <v>2.030266439137344</v>
+        <v>3.627396017528941</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.84170310238279</v>
+        <v>23.61082752298604</v>
       </c>
       <c r="J15">
-        <v>7.655151424465152</v>
+        <v>10.46165326841546</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.78237379833404</v>
+        <v>12.55542493904545</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.76776043352624</v>
+        <v>18.1361352148507</v>
       </c>
       <c r="O15">
-        <v>21.52349643635961</v>
+        <v>24.45911260935419</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.64318233762958</v>
+        <v>17.93177236201516</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.013325887772992</v>
+        <v>9.336438247822441</v>
       </c>
       <c r="E16">
-        <v>10.98815777061993</v>
+        <v>14.32077933728591</v>
       </c>
       <c r="F16">
-        <v>26.60586784592611</v>
+        <v>32.05455118546134</v>
       </c>
       <c r="G16">
-        <v>2.034773992490443</v>
+        <v>3.628973572944759</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.12586817334988</v>
+        <v>23.70433301237676</v>
       </c>
       <c r="J16">
-        <v>7.605380700223035</v>
+        <v>10.45383536869515</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.31234539665823</v>
+        <v>12.42345031360223</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.73032396637791</v>
+        <v>18.13865997617689</v>
       </c>
       <c r="O16">
-        <v>21.01403126734469</v>
+        <v>24.40678080298529</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.21798391328717</v>
+        <v>17.78762579957344</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.006659953667389</v>
+        <v>9.338726842538126</v>
       </c>
       <c r="E17">
-        <v>10.93188155248123</v>
+        <v>14.31128070215553</v>
       </c>
       <c r="F17">
-        <v>26.23744735557115</v>
+        <v>32.02929557960588</v>
       </c>
       <c r="G17">
-        <v>2.037563412323837</v>
+        <v>3.629963263077892</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.30221397564988</v>
+        <v>23.76290037419377</v>
       </c>
       <c r="J17">
-        <v>7.574906126503992</v>
+        <v>10.44912607603466</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.01697053354869</v>
+        <v>12.34209114101022</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.7085814334803</v>
+        <v>18.14073539827393</v>
       </c>
       <c r="O17">
-        <v>20.70174951068548</v>
+        <v>24.37635346718027</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.96991068802077</v>
+        <v>17.70432932329107</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.002956123138408</v>
+        <v>9.340087236421333</v>
       </c>
       <c r="E18">
-        <v>10.89951791020576</v>
+        <v>14.30586769491742</v>
       </c>
       <c r="F18">
-        <v>26.02623499459106</v>
+        <v>32.01562354167245</v>
       </c>
       <c r="G18">
-        <v>2.039177101948338</v>
+        <v>3.630540579434418</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.40438151477037</v>
+        <v>23.79703030480532</v>
       </c>
       <c r="J18">
-        <v>7.557400803415713</v>
+        <v>10.44644961501982</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.84448092385592</v>
+        <v>12.29516412751432</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.69652049389055</v>
+        <v>18.14212315883873</v>
       </c>
       <c r="O18">
-        <v>20.52226196856125</v>
+        <v>24.35947214346686</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.88531498422245</v>
+        <v>17.67606270096973</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.001724023248399</v>
+        <v>9.340555416586277</v>
       </c>
       <c r="E19">
-        <v>10.88856132382029</v>
+        <v>14.30404365724604</v>
       </c>
       <c r="F19">
-        <v>25.95484541285645</v>
+        <v>32.01114138406787</v>
       </c>
       <c r="G19">
-        <v>2.039725102047204</v>
+        <v>3.630737437294224</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.43910017184922</v>
+        <v>23.80866236488579</v>
       </c>
       <c r="J19">
-        <v>7.551477873290753</v>
+        <v>10.44554897218537</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.78563133276987</v>
+        <v>12.2792542818565</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.69251279998503</v>
+        <v>18.14262640489697</v>
       </c>
       <c r="O19">
-        <v>20.46151615274426</v>
+        <v>24.35386316818644</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.26361043270679</v>
+        <v>17.80301114193614</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.007355974776673</v>
+        <v>9.338478660078007</v>
       </c>
       <c r="E20">
-        <v>10.93787181842544</v>
+        <v>14.31228665182915</v>
       </c>
       <c r="F20">
-        <v>26.2765955684872</v>
+        <v>32.0318957189169</v>
       </c>
       <c r="G20">
-        <v>2.037265521318663</v>
+        <v>3.629857073836671</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.28336519947463</v>
+        <v>23.75661989224679</v>
       </c>
       <c r="J20">
-        <v>7.578147867104625</v>
+        <v>10.44962406303067</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.04868221952861</v>
+        <v>12.35076589108727</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.71084981974446</v>
+        <v>18.14049439605245</v>
       </c>
       <c r="O20">
-        <v>20.73497993028928</v>
+        <v>24.37952845228729</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.52174649110987</v>
+        <v>18.22472442017373</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.027866893316687</v>
+        <v>9.332026827454518</v>
       </c>
       <c r="E21">
-        <v>11.10358438762186</v>
+        <v>14.34057879945678</v>
       </c>
       <c r="F21">
-        <v>27.36562959942588</v>
+        <v>32.11181607521321</v>
       </c>
       <c r="G21">
-        <v>2.029109815434145</v>
+        <v>3.626995481026269</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.76896615605211</v>
+        <v>23.58705807704988</v>
       </c>
       <c r="J21">
-        <v>7.668018100708697</v>
+        <v>10.46369824530433</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.90156593547154</v>
+        <v>12.5893637838316</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.77780801730161</v>
+        <v>18.13564573107062</v>
       </c>
       <c r="O21">
-        <v>21.65508559311079</v>
+        <v>24.47313892773495</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.33861738660466</v>
+        <v>18.49632506286171</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.042532942197235</v>
+        <v>9.328200749348253</v>
       </c>
       <c r="E22">
-        <v>11.21186550141848</v>
+        <v>14.35950305584768</v>
       </c>
       <c r="F22">
-        <v>28.08273762302246</v>
+        <v>32.17159655710601</v>
       </c>
       <c r="G22">
-        <v>2.023853519266925</v>
+        <v>3.62519671623308</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.43946430880748</v>
+        <v>23.48017269808142</v>
       </c>
       <c r="J22">
-        <v>7.72692747966227</v>
+        <v>10.47317633491317</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.43617215289366</v>
+        <v>12.7438270345019</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.82563301408285</v>
+        <v>18.13419343733656</v>
       </c>
       <c r="O22">
-        <v>22.25692367095143</v>
+        <v>24.53975804179972</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.90592458366446</v>
+        <v>18.35176030519523</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.034584757118159</v>
+        <v>9.330207146210549</v>
       </c>
       <c r="E23">
-        <v>11.1540785682958</v>
+        <v>14.34936386017345</v>
       </c>
       <c r="F23">
-        <v>27.69954687416788</v>
+        <v>32.13900317248186</v>
       </c>
       <c r="G23">
-        <v>2.026652584932852</v>
+        <v>3.626150234024027</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.61470578707135</v>
+        <v>23.53686035296955</v>
       </c>
       <c r="J23">
-        <v>7.695471779787659</v>
+        <v>10.46809243765744</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.15291248558485</v>
+        <v>12.66153636333189</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.79973106199285</v>
+        <v>18.13481204237362</v>
       </c>
       <c r="O23">
-        <v>21.93569210198122</v>
+        <v>24.50370856504761</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.2429939609771</v>
+        <v>17.79605674502836</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.007040904447308</v>
+        <v>9.33859072429305</v>
       </c>
       <c r="E24">
-        <v>10.93516364860252</v>
+        <v>14.31183171269141</v>
       </c>
       <c r="F24">
-        <v>26.25889479063104</v>
+        <v>32.03071755459188</v>
       </c>
       <c r="G24">
-        <v>2.037400166552962</v>
+        <v>3.62990505603929</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.29188429020319</v>
+        <v>23.7594578688669</v>
       </c>
       <c r="J24">
-        <v>7.576682229372443</v>
+        <v>10.44939882656227</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.03435370085763</v>
+        <v>12.34684450825685</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.70982291565896</v>
+        <v>18.14060274694707</v>
       </c>
       <c r="O24">
-        <v>20.71995630201541</v>
+        <v>24.37809113504699</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.36964022924533</v>
+        <v>17.18221826853436</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.98226456473609</v>
+        <v>9.349319100366426</v>
       </c>
       <c r="E25">
-        <v>10.69927356716003</v>
+        <v>14.27328059174956</v>
       </c>
       <c r="F25">
-        <v>24.73214565015431</v>
+        <v>31.94659421870041</v>
       </c>
       <c r="G25">
-        <v>2.049352679031959</v>
+        <v>3.634264150184959</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.05057374823116</v>
+        <v>24.01653327938501</v>
       </c>
       <c r="J25">
-        <v>7.449445458987852</v>
+        <v>10.43046963883295</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.72832257367363</v>
+        <v>12.00257167998925</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.62978572569489</v>
+        <v>18.15427318326629</v>
       </c>
       <c r="O25">
-        <v>19.41413861578031</v>
+        <v>24.26631577149783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_231/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.72108471310284</v>
+        <v>17.87605355528713</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.35867802179188</v>
+        <v>5.967799730844707</v>
       </c>
       <c r="E2">
-        <v>14.24662713491184</v>
+        <v>10.52621398231413</v>
       </c>
       <c r="F2">
-        <v>31.91294490784457</v>
+        <v>23.63693292295426</v>
       </c>
       <c r="G2">
-        <v>3.637742375804281</v>
+        <v>2.058506596651735</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.220537026416</v>
+        <v>13.63348677247399</v>
       </c>
       <c r="J2">
-        <v>10.41762639207613</v>
+        <v>7.356706000148291</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.74661469197533</v>
+        <v>11.67938811063232</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.17077857607983</v>
+        <v>13.58484372756559</v>
       </c>
       <c r="O2">
-        <v>24.20472263912309</v>
+        <v>18.46221745735853</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.40463245790677</v>
+        <v>16.79378804280506</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.365936399759541</v>
+        <v>5.960153942542409</v>
       </c>
       <c r="E3">
-        <v>14.22967815492202</v>
+        <v>10.40957182481145</v>
       </c>
       <c r="F3">
-        <v>31.90783199814059</v>
+        <v>22.91610064533084</v>
       </c>
       <c r="G3">
-        <v>3.640268678967709</v>
+        <v>2.064950759792428</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.36803892057443</v>
+        <v>14.04385435030776</v>
       </c>
       <c r="J3">
-        <v>10.40962106939383</v>
+        <v>7.294547414174908</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.57250471215913</v>
+        <v>10.96250509783668</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.18600810926315</v>
+        <v>13.56281808562316</v>
       </c>
       <c r="O3">
-        <v>24.17600803214458</v>
+        <v>17.82616001776376</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.20902157080354</v>
+        <v>16.09540567446152</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.370846538412332</v>
+        <v>5.956465333501471</v>
       </c>
       <c r="E4">
-        <v>14.21983248234154</v>
+        <v>10.3383636373858</v>
       </c>
       <c r="F4">
-        <v>31.91342046326498</v>
+        <v>22.48529658817875</v>
       </c>
       <c r="G4">
-        <v>3.64190373001763</v>
+        <v>2.069032231984183</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.4631875786989</v>
+        <v>14.30346427054126</v>
       </c>
       <c r="J4">
-        <v>10.40505581860722</v>
+        <v>7.256760805815871</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.4655926140586</v>
+        <v>10.5286739356946</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.19736232951449</v>
+        <v>13.55335567398124</v>
       </c>
       <c r="O4">
-        <v>24.16482822832075</v>
+        <v>17.441304718699</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.12907920341724</v>
+        <v>15.80243529912251</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.372961755673117</v>
+        <v>5.955207290540146</v>
       </c>
       <c r="E5">
-        <v>14.21596317411936</v>
+        <v>10.30946418558426</v>
       </c>
       <c r="F5">
-        <v>31.9178917533174</v>
+        <v>22.31289737122973</v>
       </c>
       <c r="G5">
-        <v>3.64259119073404</v>
+        <v>2.070727676256156</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.50311642839057</v>
+        <v>14.41119298526538</v>
       </c>
       <c r="J5">
-        <v>10.40328432914306</v>
+        <v>7.241463894822973</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.42207100980546</v>
+        <v>10.34712565607309</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.20249433243099</v>
+        <v>13.55050668244779</v>
       </c>
       <c r="O5">
-        <v>24.1618974478293</v>
+        <v>17.28610104969986</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.11579393977786</v>
+        <v>15.75328698100962</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.373319896956994</v>
+        <v>5.955012978140251</v>
       </c>
       <c r="E6">
-        <v>14.2153293600262</v>
+        <v>10.30467306007164</v>
       </c>
       <c r="F6">
-        <v>31.91876666470032</v>
+        <v>22.28446686750516</v>
       </c>
       <c r="G6">
-        <v>3.642706623358643</v>
+        <v>2.071011172955515</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.50981642644315</v>
+        <v>14.42919859608203</v>
       </c>
       <c r="J6">
-        <v>10.40299556821508</v>
+        <v>7.238930161518366</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.41484846216124</v>
+        <v>10.31669636598889</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.20337704056011</v>
+        <v>13.55009401253851</v>
       </c>
       <c r="O6">
-        <v>24.16150900186939</v>
+        <v>17.26043387609112</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.20794423536382</v>
+        <v>16.09148826190109</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.370874601822031</v>
+        <v>5.956447384659048</v>
       </c>
       <c r="E7">
-        <v>14.21977971860766</v>
+        <v>10.33797338924674</v>
       </c>
       <c r="F7">
-        <v>31.91347188361306</v>
+        <v>22.4829585166232</v>
       </c>
       <c r="G7">
-        <v>3.641912915568799</v>
+        <v>2.06905496582542</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.46372139281137</v>
+        <v>14.30490928103574</v>
       </c>
       <c r="J7">
-        <v>10.40503156664351</v>
+        <v>7.256554087449977</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.46500541692024</v>
+        <v>10.52624460027836</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.19742949477831</v>
+        <v>13.55331319298372</v>
       </c>
       <c r="O7">
-        <v>24.164782120162</v>
+        <v>17.43920472794319</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.61230234153771</v>
+        <v>17.5099909765725</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.361086754719906</v>
+        <v>5.964949756769646</v>
       </c>
       <c r="E8">
-        <v>14.24066776265073</v>
+        <v>10.48591953437637</v>
       </c>
       <c r="F8">
-        <v>31.90937053299225</v>
+        <v>23.3860580979584</v>
       </c>
       <c r="G8">
-        <v>3.638596075290031</v>
+        <v>2.060703179890196</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.27044642265573</v>
+        <v>13.77340303808136</v>
       </c>
       <c r="J8">
-        <v>10.4147940247566</v>
+        <v>7.335198692500076</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.68661182849413</v>
+        <v>11.42091665497892</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.1756147646319</v>
+        <v>13.57639776797525</v>
       </c>
       <c r="O8">
-        <v>24.19348508184428</v>
+        <v>18.24184025013027</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.39064131640431</v>
+        <v>20.01853539708075</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.345479172863172</v>
+        <v>5.989994872913416</v>
       </c>
       <c r="E9">
-        <v>14.28600221576644</v>
+        <v>10.77866725244921</v>
       </c>
       <c r="F9">
-        <v>31.9705461702714</v>
+        <v>25.24235126642552</v>
       </c>
       <c r="G9">
-        <v>3.632754249200177</v>
+        <v>2.045274377238007</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.92765883708097</v>
+        <v>12.79124657737215</v>
       </c>
       <c r="J9">
-        <v>10.43667814560018</v>
+        <v>7.492171409141708</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.11904027427767</v>
+        <v>13.18171348309913</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.14867150879975</v>
+        <v>13.65453432022509</v>
       </c>
       <c r="O9">
-        <v>24.30076884528174</v>
+        <v>19.852888929477</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.94816603554842</v>
+        <v>21.6912244468259</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.336183066874186</v>
+        <v>6.014104489597102</v>
       </c>
       <c r="E10">
-        <v>14.32186997139407</v>
+        <v>10.99457970119066</v>
       </c>
       <c r="F10">
-        <v>32.05754860524618</v>
+        <v>26.64799804731246</v>
       </c>
       <c r="G10">
-        <v>3.628861734808696</v>
+        <v>2.034456930194643</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.69771011214397</v>
+        <v>12.10584616736861</v>
       </c>
       <c r="J10">
-        <v>10.45437707145627</v>
+        <v>7.608861047262056</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.43271510109984</v>
+        <v>14.34569879856678</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.13844941049821</v>
+        <v>13.73286556260677</v>
       </c>
       <c r="O10">
-        <v>24.41033648951314</v>
+        <v>21.0496796883854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.19762331348306</v>
+        <v>22.43928545635185</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.332422106021411</v>
+        <v>6.026465995900914</v>
       </c>
       <c r="E11">
-        <v>14.3387199973032</v>
+        <v>11.0928467867516</v>
       </c>
       <c r="F11">
-        <v>32.10619640035746</v>
+        <v>27.29473794128198</v>
       </c>
       <c r="G11">
-        <v>3.62717673693952</v>
+        <v>2.029633842009708</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.59781595233022</v>
+        <v>11.80191111673934</v>
       </c>
       <c r="J11">
-        <v>10.46276984060666</v>
+        <v>7.662184075099156</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.57398423018243</v>
+        <v>14.84763465614457</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.13585968796686</v>
+        <v>13.77323396987798</v>
       </c>
       <c r="O11">
-        <v>24.46675476855033</v>
+        <v>21.59542636196813</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.29140489099835</v>
+        <v>22.72387623533306</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.33106493889248</v>
+        <v>6.031361990085883</v>
       </c>
       <c r="E12">
-        <v>14.34517531939153</v>
+        <v>11.1300552225681</v>
       </c>
       <c r="F12">
-        <v>32.12591407901752</v>
+        <v>27.54057060025075</v>
       </c>
       <c r="G12">
-        <v>3.62655092827763</v>
+        <v>2.02782024039306</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.56066315941359</v>
+        <v>11.68796221697563</v>
       </c>
       <c r="J12">
-        <v>10.46599608577962</v>
+        <v>7.682406452973124</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.62723020940001</v>
+        <v>15.03379055345751</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.13517365698951</v>
+        <v>13.78921662448161</v>
       </c>
       <c r="O12">
-        <v>24.48905338776078</v>
+        <v>21.80217852908603</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.27123898504234</v>
+        <v>22.662859559727</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.331354252116858</v>
+        <v>6.030297740000916</v>
       </c>
       <c r="E13">
-        <v>14.34378176781608</v>
+        <v>11.12204199870885</v>
       </c>
       <c r="F13">
-        <v>32.12161004451441</v>
+        <v>27.4875866277946</v>
       </c>
       <c r="G13">
-        <v>3.626685162962233</v>
+        <v>2.028210284077598</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.56863469747929</v>
+        <v>11.71245188433338</v>
       </c>
       <c r="J13">
-        <v>10.46529913384824</v>
+        <v>7.678049925801529</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.61577453137822</v>
+        <v>14.99387193109771</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.13530832852062</v>
+        <v>13.78574327755903</v>
       </c>
       <c r="O13">
-        <v>24.48420962519704</v>
+        <v>21.75764806871914</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.20535292049014</v>
+        <v>22.46282294153537</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.332309109196055</v>
+        <v>6.026864394858002</v>
       </c>
       <c r="E14">
-        <v>14.33924959822853</v>
+        <v>11.09590806081821</v>
       </c>
       <c r="F14">
-        <v>32.10779266985777</v>
+        <v>27.31494479219555</v>
       </c>
       <c r="G14">
-        <v>3.627125005870414</v>
+        <v>2.02948438706514</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.5947458563253</v>
+        <v>11.79251340604948</v>
       </c>
       <c r="J14">
-        <v>10.46303430789342</v>
+        <v>7.663847201726551</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.57837006180457</v>
+        <v>14.86302801654074</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.13579735233839</v>
+        <v>13.77453483668994</v>
       </c>
       <c r="O14">
-        <v>24.46857063545103</v>
+        <v>21.6124346671402</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.16490452252898</v>
+        <v>22.3394883128143</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.332902708098958</v>
+        <v>6.024789826096288</v>
       </c>
       <c r="E15">
-        <v>14.33648316195832</v>
+        <v>11.07989959341111</v>
       </c>
       <c r="F15">
-        <v>32.09949760329841</v>
+        <v>27.20931409169651</v>
       </c>
       <c r="G15">
-        <v>3.627396017528941</v>
+        <v>2.030266439137208</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.61082752298604</v>
+        <v>11.84170310238278</v>
       </c>
       <c r="J15">
-        <v>10.46165326841546</v>
+        <v>7.655151424465248</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.55542493904545</v>
+        <v>14.78237379833401</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.1361352148507</v>
+        <v>13.76776043352626</v>
       </c>
       <c r="O15">
-        <v>24.45911260935419</v>
+        <v>21.52349643635962</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.93177236201516</v>
+        <v>21.6431823376296</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.336438247822441</v>
+        <v>6.013325887772926</v>
       </c>
       <c r="E16">
-        <v>14.32077933728591</v>
+        <v>10.98815777061999</v>
       </c>
       <c r="F16">
-        <v>32.05455118546134</v>
+        <v>26.60586784592613</v>
       </c>
       <c r="G16">
-        <v>3.628973572944759</v>
+        <v>2.034773992490312</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.70433301237676</v>
+        <v>12.12586817334995</v>
       </c>
       <c r="J16">
-        <v>10.45383536869515</v>
+        <v>7.605380700223094</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.42345031360223</v>
+        <v>14.31234539665823</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.13865997617689</v>
+        <v>13.73032396637788</v>
       </c>
       <c r="O16">
-        <v>24.40678080298529</v>
+        <v>21.01403126734473</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.78762579957344</v>
+        <v>21.21798391328717</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.338726842538126</v>
+        <v>6.00665995366726</v>
       </c>
       <c r="E17">
-        <v>14.31128070215553</v>
+        <v>10.93188155248123</v>
       </c>
       <c r="F17">
-        <v>32.02929557960588</v>
+        <v>26.23744735557116</v>
       </c>
       <c r="G17">
-        <v>3.629963263077892</v>
+        <v>2.037563412323704</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.76290037419377</v>
+        <v>12.30221397564991</v>
       </c>
       <c r="J17">
-        <v>10.44912607603466</v>
+        <v>7.574906126504019</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.34209114101022</v>
+        <v>14.01697053354863</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.14073539827393</v>
+        <v>13.70858143348026</v>
       </c>
       <c r="O17">
-        <v>24.37635346718027</v>
+        <v>20.70174951068551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.70432932329107</v>
+        <v>20.96991068802079</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.340087236421333</v>
+        <v>6.00295612313841</v>
       </c>
       <c r="E18">
-        <v>14.30586769491742</v>
+        <v>10.89951791020576</v>
       </c>
       <c r="F18">
-        <v>32.01562354167245</v>
+        <v>26.02623499459102</v>
       </c>
       <c r="G18">
-        <v>3.630540579434418</v>
+        <v>2.039177101948472</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.79703030480532</v>
+        <v>12.40438151477037</v>
       </c>
       <c r="J18">
-        <v>10.44644961501982</v>
+        <v>7.557400803415682</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.29516412751432</v>
+        <v>13.84448092385595</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.14212315883873</v>
+        <v>13.69652049389055</v>
       </c>
       <c r="O18">
-        <v>24.35947214346686</v>
+        <v>20.52226196856124</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.67606270096973</v>
+        <v>20.88531498422245</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.340555416586277</v>
+        <v>6.001724023248399</v>
       </c>
       <c r="E19">
-        <v>14.30404365724604</v>
+        <v>10.88856132382029</v>
       </c>
       <c r="F19">
-        <v>32.01114138406787</v>
+        <v>25.95484541285645</v>
       </c>
       <c r="G19">
-        <v>3.630737437294224</v>
+        <v>2.039725102047335</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.80866236488579</v>
+        <v>12.43910017184916</v>
       </c>
       <c r="J19">
-        <v>10.44554897218537</v>
+        <v>7.551477873290752</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.2792542818565</v>
+        <v>13.78563133276984</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.14262640489697</v>
+        <v>13.692512799985</v>
       </c>
       <c r="O19">
-        <v>24.35386316818644</v>
+        <v>20.46151615274426</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.80301114193614</v>
+        <v>21.26361043270682</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.338478660078007</v>
+        <v>6.007355974776608</v>
       </c>
       <c r="E20">
-        <v>14.31228665182915</v>
+        <v>10.93787181842544</v>
       </c>
       <c r="F20">
-        <v>32.0318957189169</v>
+        <v>26.27659556848722</v>
       </c>
       <c r="G20">
-        <v>3.629857073836671</v>
+        <v>2.037265521318661</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.75661989224679</v>
+        <v>12.28336519947464</v>
       </c>
       <c r="J20">
-        <v>10.44962406303067</v>
+        <v>7.578147867104619</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.35076589108727</v>
+        <v>14.04868221952855</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.14049439605245</v>
+        <v>13.71084981974449</v>
       </c>
       <c r="O20">
-        <v>24.37952845228729</v>
+        <v>20.7349799302893</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.22472442017373</v>
+        <v>22.52174649110989</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.332026827454518</v>
+        <v>6.027866893316495</v>
       </c>
       <c r="E21">
-        <v>14.34057879945678</v>
+        <v>11.10358438762185</v>
       </c>
       <c r="F21">
-        <v>32.11181607521321</v>
+        <v>27.36562959942585</v>
       </c>
       <c r="G21">
-        <v>3.626995481026269</v>
+        <v>2.029109815433881</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.58705807704988</v>
+        <v>11.76896615605202</v>
       </c>
       <c r="J21">
-        <v>10.46369824530433</v>
+        <v>7.668018100708755</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.5893637838316</v>
+        <v>14.90156593547151</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.13564573107062</v>
+        <v>13.77780801730158</v>
       </c>
       <c r="O21">
-        <v>24.47313892773495</v>
+        <v>21.65508559311081</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.49632506286171</v>
+        <v>23.33861738660466</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.328200749348253</v>
+        <v>6.0425329421973</v>
       </c>
       <c r="E22">
-        <v>14.35950305584768</v>
+        <v>11.21186550141847</v>
       </c>
       <c r="F22">
-        <v>32.17159655710601</v>
+        <v>28.08273762302247</v>
       </c>
       <c r="G22">
-        <v>3.62519671623308</v>
+        <v>2.023853519267059</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.48017269808142</v>
+        <v>11.43946430880748</v>
       </c>
       <c r="J22">
-        <v>10.47317633491317</v>
+        <v>7.72692747966227</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.7438270345019</v>
+        <v>15.43617215289363</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.13419343733656</v>
+        <v>13.82563301408288</v>
       </c>
       <c r="O22">
-        <v>24.53975804179972</v>
+        <v>22.25692367095143</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.35176030519523</v>
+        <v>22.90592458366446</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.330207146210549</v>
+        <v>6.03458475711829</v>
       </c>
       <c r="E23">
-        <v>14.34936386017345</v>
+        <v>11.15407856829586</v>
       </c>
       <c r="F23">
-        <v>32.13900317248186</v>
+        <v>27.69954687416789</v>
       </c>
       <c r="G23">
-        <v>3.626150234024027</v>
+        <v>2.026652584932989</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.53686035296955</v>
+        <v>11.61470578707135</v>
       </c>
       <c r="J23">
-        <v>10.46809243765744</v>
+        <v>7.695471779787658</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.66153636333189</v>
+        <v>15.15291248558484</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.13481204237362</v>
+        <v>13.79973106199284</v>
       </c>
       <c r="O23">
-        <v>24.50370856504761</v>
+        <v>21.93569210198122</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.79605674502836</v>
+        <v>21.24299396097713</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.33859072429305</v>
+        <v>6.007040904447174</v>
       </c>
       <c r="E24">
-        <v>14.31183171269141</v>
+        <v>10.93516364860245</v>
       </c>
       <c r="F24">
-        <v>32.03071755459188</v>
+        <v>26.25889479063103</v>
       </c>
       <c r="G24">
-        <v>3.62990505603929</v>
+        <v>2.037400166552962</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.7594578688669</v>
+        <v>12.29188429020316</v>
       </c>
       <c r="J24">
-        <v>10.44939882656227</v>
+        <v>7.57668222937244</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.34684450825685</v>
+        <v>14.03435370085764</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.14060274694707</v>
+        <v>13.70982291565891</v>
       </c>
       <c r="O24">
-        <v>24.37809113504699</v>
+        <v>20.71995630201541</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.18221826853436</v>
+        <v>19.36964022924534</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.349319100366426</v>
+        <v>5.982264564736088</v>
       </c>
       <c r="E25">
-        <v>14.27328059174956</v>
+        <v>10.69927356716003</v>
       </c>
       <c r="F25">
-        <v>31.94659421870041</v>
+        <v>24.73214565015434</v>
       </c>
       <c r="G25">
-        <v>3.634264150184959</v>
+        <v>2.049352679031956</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.01653327938501</v>
+        <v>13.05057374823126</v>
       </c>
       <c r="J25">
-        <v>10.43046963883295</v>
+        <v>7.449445458987823</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.00257167998925</v>
+        <v>12.72832257367362</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.15427318326629</v>
+        <v>13.62978572569492</v>
       </c>
       <c r="O25">
-        <v>24.26631577149783</v>
+        <v>19.41413861578034</v>
       </c>
     </row>
   </sheetData>
